--- a/backend/messmanagement/src/main/resources/20-Jan_to_2-Feb_menu.xlsx
+++ b/backend/messmanagement/src/main/resources/20-Jan_to_2-Feb_menu.xlsx
@@ -557,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +582,12 @@
       <sz val="14"/>
       <color rgb="FFff0000"/>
       <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -813,7 +819,7 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
